--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2939.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2939.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9240717795697495</v>
+        <v>1.458088755607605</v>
       </c>
       <c r="B1">
-        <v>1.724469922667273</v>
+        <v>1.444346189498901</v>
       </c>
       <c r="C1">
-        <v>6.772334695531728</v>
+        <v>3.604047060012817</v>
       </c>
       <c r="D1">
-        <v>3.339624598802867</v>
+        <v>2.470268487930298</v>
       </c>
       <c r="E1">
-        <v>1.525469294317704</v>
+        <v>0.8562158942222595</v>
       </c>
     </row>
   </sheetData>
